--- a/biology/Médecine/Bertin_Nahum/Bertin_Nahum.xlsx
+++ b/biology/Médecine/Bertin_Nahum/Bertin_Nahum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bertin Nahum est un entrepreneur franco-béninois, né le 14 novembre 1969 à Dakar (Sénégal). Il est le fondateur de la société Medtech, à l'origine de la technologie médicale robotisée ROSA, et désormais Président fondateur de l'entreprise Quantum Surgical, dédiée au traitement innovant du cancer du foie.
 </t>
@@ -513,26 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formation et débuts
-Bertin Nahum est titulaire d'un diplôme d'ingénieur de l'Institut national des sciences appliquées de Lyon et un Master of Science en robotique de l'université de Coventry (Royaume-Uni)[1].
-Après ses études, il se dirige vers le domaine de l’ingénierie médicale[2]. Il exerce ainsi diverses fonctions de management dans des sociétés de renom spécialisées en robotique chirurgicale.
+          <t>Formation et débuts</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bertin Nahum est titulaire d'un diplôme d'ingénieur de l'Institut national des sciences appliquées de Lyon et un Master of Science en robotique de l'université de Coventry (Royaume-Uni).
+Après ses études, il se dirige vers le domaine de l’ingénierie médicale. Il exerce ainsi diverses fonctions de management dans des sociétés de renom spécialisées en robotique chirurgicale.
 À la suite de ces expériences de terrain, notamment en bloc opératoire et de collaboration avec les plus éminents chirurgiens, Bertin Nahum décide d’entreprendre dans le secteur de la robotique chirurgicale.
-En 2002, après avoir été lauréat du Concours national d’aide à la création d'entreprises de technologies innovantes du ministère de l'Éducation nationale, de l'Enseignement supérieur et de la Recherche[3], Bertin Nahum fonde la société Medtech S.A.[4]
-Medtech S.A
-Développée à l'incubateur des Mines d'Alès et aujourd'hui implantée à Montpellier (Hérault), Medtech S.A conçoit, développe et commercialise des robots d’assistance à la chirurgie mini-invasive du système nerveux central.
-Le premier robot chirurgical développé par Medtech S.A, BRIGIT, est destiné à la chirurgie du genou. En 2006, Zimmer Holdings, leader mondial de la chirurgie orthopédique, achète l’ensemble du portefeuille de brevets de BRIGIT[5].
-Medtech S.A décide alors de réinvestir ces moyens dans la conception d’une nouvelle technologie d’assistance robotisée. Le second robot, ROSA Brain, destiné à la neurochirurgie, est ainsi conçu.
-Les pathologies concernées par l’utilisation de ROSA Brain sont entre autres l’épilepsie, la maladie de Parkinson, la dystonie généralisée, le cavernome, l’hydrocéphalie[6]. A ce jour, des milliers de patients ont été opérés à l'aide du robot ROSA Brain[7], présent dans de nombreux établissements hospitaliers en Europe, en Amérique du Nord, en Asie et au Moyen-Orient[8].
-En juillet 2014, Medtech S.A a obtenu le marquage CE pour son second robot, ROSA Spine, élargissant le champ d’intervention de la société à la chirurgie mini-invasive de la colonne vertébrale. Cette autorisation réglementaire a permis la commercialisation de ROSA Spine en Europe. Fin 2014, un premier patient a été opéré avec succès à l’aide du robot ROSA Spine par le service de neurochirurgie du Centre Hospitalier-Universitaire Amiens-Picardie, dans le cadre d’une pathologie dégénérative de la colonne vertébrale. Ce nouveau robot d’assistance à la chirurgie mini-invasive est  prioritairement destiné au vissage pédiculaire dont plus d’un million de procédures chirurgicales sont réalisées chaque année dans le monde[9].
-Par ailleurs, en novembre 2013, la société Medtech S.A a été introduite en bourse, levant 20 millions d’euros sur le marché réglementé de NYSE Euronext à Paris, compartiment C[10].
-En juillet 2016, le groupe américain Zimmer Biomet (NYSE : ZBH), acquiert Medtech S.A, pour 164 millions d'euros[11].
-Quantum Surgical
-Le 31 janvier 2017, Bertin Nahum quitte le groupe Zimmer Biomet[12]. En février 2017, il annonce la création de Quantum Surgical[13], accompagné d'anciens collaborateurs de Medtech devenus associés. Basée à Montpellier (Hérault), au sein du parc Eurêka, la société Quantum Surgical développe la plateforme Epione, un système d'assistance robotique à l'ablation percutanée. Cette procédure est une alternative à la chirurgie et permet de traiter des tumeurs particulièrement difficiles à atteindre, par leur taille ou leur localisation.
-Epione est dédiée au traitement peu invasif des cancers de l'abdomen : foie, reins, pancréas[14]. Plus de 4 millions de nouveaux cancers de l'abdomen sont diagnostiqués chaque année[15].
-Une étude clinique sur l'utilisation d'Epione dans le traitement des métastases pulmonaires est lancée en avril 2023 à Gustave-Roussy[16].
-Le robot Epione est disponible à Gustave-Roussy et aux Hospices civils de Lyon. Le premier patient a été traité aux Etats-Unis en mai 2023 à l'hôpital Baptist Health South Florida de Miami[17]. Près de 200 patients ont été traités dans le monde[18].
-En novembre 2022, Quantum Surgical a reçu le Prix Galien USA, l'équivalent du prix Nobel de la recherche biopharmaceutique[19].
-En juin 2023, Quantum Surgical est lauréat du programme French Tech 2030. Ce programme de l'Etat accompagne les acteurs émergents en innovation de rupture, pour notamment faire de la France un leader européen souverain en innovation en santé[20].
+En 2002, après avoir été lauréat du Concours national d’aide à la création d'entreprises de technologies innovantes du ministère de l'Éducation nationale, de l'Enseignement supérieur et de la Recherche, Bertin Nahum fonde la société Medtech S.A.
 </t>
         </is>
       </c>
@@ -558,13 +560,100 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Medtech S.A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Développée à l'incubateur des Mines d'Alès et aujourd'hui implantée à Montpellier (Hérault), Medtech S.A conçoit, développe et commercialise des robots d’assistance à la chirurgie mini-invasive du système nerveux central.
+Le premier robot chirurgical développé par Medtech S.A, BRIGIT, est destiné à la chirurgie du genou. En 2006, Zimmer Holdings, leader mondial de la chirurgie orthopédique, achète l’ensemble du portefeuille de brevets de BRIGIT.
+Medtech S.A décide alors de réinvestir ces moyens dans la conception d’une nouvelle technologie d’assistance robotisée. Le second robot, ROSA Brain, destiné à la neurochirurgie, est ainsi conçu.
+Les pathologies concernées par l’utilisation de ROSA Brain sont entre autres l’épilepsie, la maladie de Parkinson, la dystonie généralisée, le cavernome, l’hydrocéphalie. A ce jour, des milliers de patients ont été opérés à l'aide du robot ROSA Brain, présent dans de nombreux établissements hospitaliers en Europe, en Amérique du Nord, en Asie et au Moyen-Orient.
+En juillet 2014, Medtech S.A a obtenu le marquage CE pour son second robot, ROSA Spine, élargissant le champ d’intervention de la société à la chirurgie mini-invasive de la colonne vertébrale. Cette autorisation réglementaire a permis la commercialisation de ROSA Spine en Europe. Fin 2014, un premier patient a été opéré avec succès à l’aide du robot ROSA Spine par le service de neurochirurgie du Centre Hospitalier-Universitaire Amiens-Picardie, dans le cadre d’une pathologie dégénérative de la colonne vertébrale. Ce nouveau robot d’assistance à la chirurgie mini-invasive est  prioritairement destiné au vissage pédiculaire dont plus d’un million de procédures chirurgicales sont réalisées chaque année dans le monde.
+Par ailleurs, en novembre 2013, la société Medtech S.A a été introduite en bourse, levant 20 millions d’euros sur le marché réglementé de NYSE Euronext à Paris, compartiment C.
+En juillet 2016, le groupe américain Zimmer Biomet (NYSE : ZBH), acquiert Medtech S.A, pour 164 millions d'euros.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bertin_Nahum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertin_Nahum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Quantum Surgical</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 31 janvier 2017, Bertin Nahum quitte le groupe Zimmer Biomet. En février 2017, il annonce la création de Quantum Surgical, accompagné d'anciens collaborateurs de Medtech devenus associés. Basée à Montpellier (Hérault), au sein du parc Eurêka, la société Quantum Surgical développe la plateforme Epione, un système d'assistance robotique à l'ablation percutanée. Cette procédure est une alternative à la chirurgie et permet de traiter des tumeurs particulièrement difficiles à atteindre, par leur taille ou leur localisation.
+Epione est dédiée au traitement peu invasif des cancers de l'abdomen : foie, reins, pancréas. Plus de 4 millions de nouveaux cancers de l'abdomen sont diagnostiqués chaque année.
+Une étude clinique sur l'utilisation d'Epione dans le traitement des métastases pulmonaires est lancée en avril 2023 à Gustave-Roussy.
+Le robot Epione est disponible à Gustave-Roussy et aux Hospices civils de Lyon. Le premier patient a été traité aux Etats-Unis en mai 2023 à l'hôpital Baptist Health South Florida de Miami. Près de 200 patients ont été traités dans le monde.
+En novembre 2022, Quantum Surgical a reçu le Prix Galien USA, l'équivalent du prix Nobel de la recherche biopharmaceutique.
+En juin 2023, Quantum Surgical est lauréat du programme French Tech 2030. Ce programme de l'Etat accompagne les acteurs émergents en innovation de rupture, pour notamment faire de la France un leader européen souverain en innovation en santé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bertin_Nahum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bertin_Nahum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En septembre 2012, Bertin Nahum est classé quatrième entrepreneur high-tech le plus révolutionnaire du monde par une publication de la revue canadienne Discovery Series[21], derrière Steve Jobs, Mark Zuckerberg et James Cameron[22]. Parmi les critères de sélection de Discovery Series, l’entrepreneur devait être porteur d’une innovation à la fois révolutionnaire et impactant la vie des gens[23].
-Un an plus tard, en septembre 2013, Bertin Nahum reçoit les insignes de chevalier de la Légion d’honneur, remis par Fleur Pellerin, ministre déléguée, des petites et moyennes entreprises de l'innovation et de l'économie numérique [24].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En septembre 2012, Bertin Nahum est classé quatrième entrepreneur high-tech le plus révolutionnaire du monde par une publication de la revue canadienne Discovery Series, derrière Steve Jobs, Mark Zuckerberg et James Cameron. Parmi les critères de sélection de Discovery Series, l’entrepreneur devait être porteur d’une innovation à la fois révolutionnaire et impactant la vie des gens.
+Un an plus tard, en septembre 2013, Bertin Nahum reçoit les insignes de chevalier de la Légion d’honneur, remis par Fleur Pellerin, ministre déléguée, des petites et moyennes entreprises de l'innovation et de l'économie numérique .
 En novembre 2014, Bertin Nahum reçoit le titre honorifique de Docteur en Technologie par l’Université de Coventry (Royaume-Uni), en témoignage de sa contribution essentielle à la profession médicale et à l’amélioration des procédures chirurgicales grâce à la technologie robotique.[réf. nécessaire]
 </t>
         </is>
